--- a/Asylstatistik_Schweiz_201112.xlsx
+++ b/Asylstatistik_Schweiz_201112.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E28E53-51A7-4E8E-BAD4-34A694ED68D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EABB88-818A-4CAF-81E8-216CEC87378E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1068,6 +1068,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1124,9 +1127,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1472,7 +1472,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1633,53 +1633,53 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="78">
+      <c r="A4" s="59">
         <v>2011</v>
       </c>
       <c r="B4" s="11">
-        <v>27106</v>
+        <v>27.106000000000002</v>
       </c>
       <c r="C4" s="12">
-        <v>11642</v>
+        <v>11.641999999999999</v>
       </c>
       <c r="D4" s="12">
-        <v>15464</v>
+        <v>15.464</v>
       </c>
       <c r="E4" s="26">
-        <v>9445</v>
+        <v>9.4450000000000003</v>
       </c>
       <c r="F4" s="12">
-        <v>4028</v>
+        <v>4.0279999999999996</v>
       </c>
       <c r="G4" s="12">
-        <v>5417</v>
+        <v>5.4169999999999998</v>
       </c>
       <c r="H4" s="12">
-        <v>1257</v>
+        <v>1.2569999999999999</v>
       </c>
       <c r="I4" s="12">
-        <v>194</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="J4" s="12">
-        <v>1063</v>
+        <v>1.0629999999999999</v>
       </c>
       <c r="K4" s="12">
-        <v>8188</v>
+        <v>8.1880000000000006</v>
       </c>
       <c r="L4" s="12">
-        <v>3834</v>
+        <v>3.8340000000000001</v>
       </c>
       <c r="M4" s="12">
-        <v>4354</v>
+        <v>4.3540000000000001</v>
       </c>
       <c r="N4" s="26">
-        <v>17661</v>
+        <v>17.661000000000001</v>
       </c>
       <c r="O4" s="12">
-        <v>7614</v>
+        <v>7.6139999999999999</v>
       </c>
       <c r="P4" s="12">
-        <v>10047</v>
+        <v>10.047000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7853,71 +7853,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -12193,71 +12193,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -13983,71 +13983,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -16155,71 +16155,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -18277,71 +18277,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -21917,71 +21917,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -25057,71 +25057,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -26711,71 +26711,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -28533,71 +28533,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -31923,71 +31923,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -34237,71 +34237,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="21" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="62"/>
+      <c r="B2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="62"/>
+      <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="72" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="69" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
       <c r="P3" s="28"/>
@@ -35748,71 +35748,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -38638,71 +38638,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -41178,71 +41178,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -43868,71 +43868,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -46308,71 +46308,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -47962,71 +47962,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -52652,71 +52652,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -55692,71 +55692,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -57764,71 +57764,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -62154,71 +62154,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -65494,71 +65494,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -66798,71 +66798,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -68352,71 +68352,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -72892,71 +72892,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -76164,71 +76164,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>
@@ -79004,71 +79004,71 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33"/>

--- a/Asylstatistik_Schweiz_201112.xlsx
+++ b/Asylstatistik_Schweiz_201112.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EABB88-818A-4CAF-81E8-216CEC87378E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F123C31-53F2-4A94-9DDD-E4350387B2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,16 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="26">ZG!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="27">ZH!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1472,7 +1481,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1637,49 +1646,50 @@
         <v>2011</v>
       </c>
       <c r="B4" s="11">
-        <v>27.106000000000002</v>
+        <v>27106</v>
       </c>
       <c r="C4" s="12">
-        <v>11.641999999999999</v>
+        <v>11642</v>
       </c>
       <c r="D4" s="12">
-        <v>15.464</v>
+        <v>15464</v>
       </c>
       <c r="E4" s="26">
-        <v>9.4450000000000003</v>
+        <v>9445</v>
       </c>
       <c r="F4" s="12">
-        <v>4.0279999999999996</v>
+        <v>4028</v>
       </c>
       <c r="G4" s="12">
-        <v>5.4169999999999998</v>
+        <v>5417</v>
       </c>
       <c r="H4" s="12">
-        <v>1.2569999999999999</v>
+        <v>1257</v>
       </c>
       <c r="I4" s="12">
-        <v>0.19400000000000001</v>
+        <v>194</v>
       </c>
       <c r="J4" s="12">
-        <v>1.0629999999999999</v>
+        <v>1063</v>
       </c>
       <c r="K4" s="12">
-        <v>8.1880000000000006</v>
+        <v>8188</v>
       </c>
       <c r="L4" s="12">
-        <v>3.8340000000000001</v>
+        <v>3834</v>
       </c>
       <c r="M4" s="12">
-        <v>4.3540000000000001</v>
+        <v>4354</v>
       </c>
       <c r="N4" s="26">
-        <v>17.661000000000001</v>
+        <f>SUM(O4:P4)</f>
+        <v>17661</v>
       </c>
       <c r="O4" s="12">
-        <v>7.6139999999999999</v>
+        <v>7614</v>
       </c>
       <c r="P4" s="12">
-        <v>10.047000000000001</v>
+        <v>10047</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/Asylstatistik_Schweiz_201112.xlsx
+++ b/Asylstatistik_Schweiz_201112.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F123C31-53F2-4A94-9DDD-E4350387B2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976F8D8E-4350-4811-A514-6860E23DD082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="876" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH-Nati" sheetId="5" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="190">
   <si>
     <t>Total anerkannte 
 Flüchtlinge mit Asyl</t>
@@ -678,6 +678,9 @@
   <si>
     <t>Übrige Europa</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
@@ -901,7 +904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1136,6 +1139,18 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1479,7 +1494,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
@@ -34232,21 +34247,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" style="19" customWidth="1"/>
-    <col min="2" max="16" width="7.7265625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.54296875" style="2"/>
+    <col min="1" max="2" width="19.7265625" style="19" customWidth="1"/>
+    <col min="3" max="17" width="7.7265625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="21" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="21" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
         <v>10</v>
       </c>
@@ -34265,1464 +34280,1549 @@
       <c r="N1" s="60"/>
       <c r="O1" s="60"/>
       <c r="P1" s="60"/>
-    </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q1" s="60"/>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="68"/>
+      <c r="B2" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="67" t="s">
+        <v>1</v>
+      </c>
       <c r="G2" s="68"/>
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
       <c r="J2" s="68"/>
       <c r="K2" s="68"/>
       <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="63"/>
-    </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="63"/>
+    </row>
+    <row r="3" spans="1:17" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="73" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="70" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="27"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
       <c r="O3" s="27"/>
-      <c r="P3" s="28"/>
-    </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="27"/>
+      <c r="Q3" s="28"/>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="H4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="Q4" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="81"/>
+      <c r="C5" s="11">
         <v>27106</v>
       </c>
-      <c r="C5" s="12">
+      <c r="D5" s="12">
         <v>11642</v>
       </c>
-      <c r="D5" s="12">
+      <c r="E5" s="12">
         <v>15464</v>
       </c>
-      <c r="E5" s="26">
+      <c r="F5" s="26">
         <v>9445</v>
       </c>
-      <c r="F5" s="12">
+      <c r="G5" s="12">
         <v>4028</v>
       </c>
-      <c r="G5" s="12">
+      <c r="H5" s="12">
         <v>5417</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I5" s="12">
         <v>1257</v>
       </c>
-      <c r="I5" s="12">
+      <c r="J5" s="12">
         <v>194</v>
       </c>
-      <c r="J5" s="12">
+      <c r="K5" s="12">
         <v>1063</v>
       </c>
-      <c r="K5" s="12">
+      <c r="L5" s="12">
         <v>8188</v>
       </c>
-      <c r="L5" s="12">
+      <c r="M5" s="12">
         <v>3834</v>
       </c>
-      <c r="M5" s="12">
+      <c r="N5" s="12">
         <v>4354</v>
       </c>
-      <c r="N5" s="26">
+      <c r="O5" s="26">
         <v>17661</v>
       </c>
-      <c r="O5" s="12">
+      <c r="P5" s="12">
         <v>7614</v>
       </c>
-      <c r="P5" s="12">
+      <c r="Q5" s="12">
         <v>10047</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C6" s="15">
         <v>2064</v>
       </c>
-      <c r="C6" s="16">
+      <c r="D6" s="16">
         <v>889</v>
       </c>
-      <c r="D6" s="16">
+      <c r="E6" s="16">
         <v>1175</v>
       </c>
-      <c r="E6" s="15">
+      <c r="F6" s="15">
         <v>879</v>
       </c>
-      <c r="F6" s="16">
+      <c r="G6" s="16">
         <v>385</v>
       </c>
-      <c r="G6" s="16">
+      <c r="H6" s="16">
         <v>494</v>
       </c>
-      <c r="H6" s="17">
+      <c r="I6" s="17">
         <v>105</v>
       </c>
-      <c r="I6" s="16">
+      <c r="J6" s="16">
         <v>17</v>
       </c>
-      <c r="J6" s="16">
+      <c r="K6" s="16">
         <v>88</v>
       </c>
-      <c r="K6" s="17">
+      <c r="L6" s="17">
         <v>774</v>
       </c>
-      <c r="L6" s="16">
+      <c r="M6" s="16">
         <v>368</v>
       </c>
-      <c r="M6" s="16">
+      <c r="N6" s="16">
         <v>406</v>
       </c>
-      <c r="N6" s="15">
+      <c r="O6" s="15">
         <v>1185</v>
       </c>
-      <c r="O6" s="16">
+      <c r="P6" s="16">
         <v>504</v>
       </c>
-      <c r="P6" s="16">
+      <c r="Q6" s="16">
         <v>681</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C7" s="15">
         <v>166</v>
       </c>
-      <c r="C7" s="17">
+      <c r="D7" s="17">
         <v>67</v>
       </c>
-      <c r="D7" s="17">
+      <c r="E7" s="17">
         <v>99</v>
       </c>
-      <c r="E7" s="15">
+      <c r="F7" s="15">
         <v>96</v>
       </c>
-      <c r="F7" s="17">
+      <c r="G7" s="17">
         <v>41</v>
       </c>
-      <c r="G7" s="17">
+      <c r="H7" s="17">
         <v>55</v>
       </c>
-      <c r="H7" s="17">
+      <c r="I7" s="17">
         <v>22</v>
       </c>
-      <c r="I7" s="17">
-        <v>3</v>
-      </c>
       <c r="J7" s="17">
+        <v>3</v>
+      </c>
+      <c r="K7" s="17">
         <v>19</v>
       </c>
-      <c r="K7" s="17">
+      <c r="L7" s="17">
         <v>74</v>
       </c>
-      <c r="L7" s="17">
+      <c r="M7" s="17">
         <v>38</v>
       </c>
-      <c r="M7" s="17">
+      <c r="N7" s="17">
         <v>36</v>
       </c>
-      <c r="N7" s="15">
+      <c r="O7" s="15">
         <v>70</v>
       </c>
-      <c r="O7" s="17">
+      <c r="P7" s="17">
         <v>26</v>
       </c>
-      <c r="P7" s="17">
+      <c r="Q7" s="17">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C8" s="15">
         <v>37</v>
       </c>
-      <c r="C8" s="16">
+      <c r="D8" s="16">
         <v>13</v>
       </c>
-      <c r="D8" s="16">
+      <c r="E8" s="16">
         <v>24</v>
       </c>
-      <c r="E8" s="15">
+      <c r="F8" s="15">
         <v>25</v>
       </c>
-      <c r="F8" s="16">
+      <c r="G8" s="16">
         <v>9</v>
       </c>
-      <c r="G8" s="16">
+      <c r="H8" s="16">
         <v>16</v>
       </c>
-      <c r="H8" s="17">
+      <c r="I8" s="17">
         <v>6</v>
       </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
       <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
         <v>6</v>
       </c>
-      <c r="K8" s="17">
+      <c r="L8" s="17">
         <v>19</v>
       </c>
-      <c r="L8" s="16">
+      <c r="M8" s="16">
         <v>9</v>
       </c>
-      <c r="M8" s="16">
+      <c r="N8" s="16">
         <v>10</v>
       </c>
-      <c r="N8" s="15">
+      <c r="O8" s="15">
         <v>12</v>
       </c>
-      <c r="O8" s="16">
+      <c r="P8" s="16">
         <v>4</v>
       </c>
-      <c r="P8" s="16">
+      <c r="Q8" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C9" s="15">
         <v>1087</v>
       </c>
-      <c r="C9" s="17">
+      <c r="D9" s="17">
         <v>453</v>
       </c>
-      <c r="D9" s="17">
+      <c r="E9" s="17">
         <v>634</v>
       </c>
-      <c r="E9" s="15">
+      <c r="F9" s="15">
         <v>448</v>
       </c>
-      <c r="F9" s="17">
+      <c r="G9" s="17">
         <v>184</v>
       </c>
-      <c r="G9" s="17">
+      <c r="H9" s="17">
         <v>264</v>
       </c>
-      <c r="H9" s="17">
+      <c r="I9" s="17">
         <v>77</v>
       </c>
-      <c r="I9" s="17">
+      <c r="J9" s="17">
         <v>14</v>
       </c>
-      <c r="J9" s="17">
+      <c r="K9" s="17">
         <v>63</v>
       </c>
-      <c r="K9" s="17">
+      <c r="L9" s="17">
         <v>371</v>
       </c>
-      <c r="L9" s="17">
+      <c r="M9" s="17">
         <v>170</v>
       </c>
-      <c r="M9" s="17">
+      <c r="N9" s="17">
         <v>201</v>
       </c>
-      <c r="N9" s="15">
+      <c r="O9" s="15">
         <v>639</v>
       </c>
-      <c r="O9" s="17">
+      <c r="P9" s="17">
         <v>269</v>
       </c>
-      <c r="P9" s="17">
+      <c r="Q9" s="17">
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C10" s="15">
         <v>787</v>
       </c>
-      <c r="C10" s="16">
+      <c r="D10" s="16">
         <v>326</v>
       </c>
-      <c r="D10" s="16">
+      <c r="E10" s="16">
         <v>461</v>
       </c>
-      <c r="E10" s="15">
+      <c r="F10" s="15">
         <v>245</v>
       </c>
-      <c r="F10" s="16">
+      <c r="G10" s="16">
         <v>102</v>
       </c>
-      <c r="G10" s="16">
+      <c r="H10" s="16">
         <v>143</v>
       </c>
-      <c r="H10" s="17">
+      <c r="I10" s="17">
         <v>28</v>
       </c>
-      <c r="I10" s="16">
-        <v>3</v>
-      </c>
       <c r="J10" s="16">
+        <v>3</v>
+      </c>
+      <c r="K10" s="16">
         <v>25</v>
       </c>
-      <c r="K10" s="17">
+      <c r="L10" s="17">
         <v>217</v>
       </c>
-      <c r="L10" s="16">
+      <c r="M10" s="16">
         <v>99</v>
       </c>
-      <c r="M10" s="16">
+      <c r="N10" s="16">
         <v>118</v>
       </c>
-      <c r="N10" s="15">
+      <c r="O10" s="15">
         <v>542</v>
       </c>
-      <c r="O10" s="16">
+      <c r="P10" s="16">
         <v>224</v>
       </c>
-      <c r="P10" s="16">
+      <c r="Q10" s="16">
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C11" s="15">
         <v>4218</v>
       </c>
-      <c r="C11" s="17">
+      <c r="D11" s="17">
         <v>1884</v>
       </c>
-      <c r="D11" s="17">
+      <c r="E11" s="17">
         <v>2334</v>
       </c>
-      <c r="E11" s="15">
+      <c r="F11" s="15">
         <v>1443</v>
       </c>
-      <c r="F11" s="17">
+      <c r="G11" s="17">
         <v>668</v>
       </c>
-      <c r="G11" s="17">
+      <c r="H11" s="17">
         <v>775</v>
       </c>
-      <c r="H11" s="17">
+      <c r="I11" s="17">
         <v>119</v>
       </c>
-      <c r="I11" s="17">
+      <c r="J11" s="17">
         <v>25</v>
       </c>
-      <c r="J11" s="17">
+      <c r="K11" s="17">
         <v>94</v>
       </c>
-      <c r="K11" s="17">
+      <c r="L11" s="17">
         <v>1324</v>
       </c>
-      <c r="L11" s="17">
+      <c r="M11" s="17">
         <v>643</v>
       </c>
-      <c r="M11" s="17">
+      <c r="N11" s="17">
         <v>681</v>
       </c>
-      <c r="N11" s="15">
+      <c r="O11" s="15">
         <v>2775</v>
       </c>
-      <c r="O11" s="17">
+      <c r="P11" s="17">
         <v>1216</v>
       </c>
-      <c r="P11" s="17">
+      <c r="Q11" s="17">
         <v>1559</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C12" s="15">
         <v>901</v>
       </c>
-      <c r="C12" s="16">
+      <c r="D12" s="16">
         <v>364</v>
       </c>
-      <c r="D12" s="16">
+      <c r="E12" s="16">
         <v>537</v>
       </c>
-      <c r="E12" s="15">
+      <c r="F12" s="15">
         <v>281</v>
       </c>
-      <c r="F12" s="16">
+      <c r="G12" s="16">
         <v>109</v>
       </c>
-      <c r="G12" s="16">
+      <c r="H12" s="16">
         <v>172</v>
       </c>
-      <c r="H12" s="17">
+      <c r="I12" s="17">
         <v>46</v>
       </c>
-      <c r="I12" s="16">
+      <c r="J12" s="16">
         <v>5</v>
       </c>
-      <c r="J12" s="16">
+      <c r="K12" s="16">
         <v>41</v>
       </c>
-      <c r="K12" s="17">
+      <c r="L12" s="17">
         <v>235</v>
       </c>
-      <c r="L12" s="16">
+      <c r="M12" s="16">
         <v>104</v>
       </c>
-      <c r="M12" s="16">
+      <c r="N12" s="16">
         <v>131</v>
       </c>
-      <c r="N12" s="15">
+      <c r="O12" s="15">
         <v>620</v>
       </c>
-      <c r="O12" s="16">
+      <c r="P12" s="16">
         <v>255</v>
       </c>
-      <c r="P12" s="16">
+      <c r="Q12" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C13" s="15">
         <v>1790</v>
       </c>
-      <c r="C13" s="17">
+      <c r="D13" s="17">
         <v>790</v>
       </c>
-      <c r="D13" s="17">
+      <c r="E13" s="17">
         <v>1000</v>
       </c>
-      <c r="E13" s="15">
+      <c r="F13" s="15">
         <v>468</v>
       </c>
-      <c r="F13" s="17">
+      <c r="G13" s="17">
         <v>209</v>
       </c>
-      <c r="G13" s="17">
+      <c r="H13" s="17">
         <v>259</v>
       </c>
-      <c r="H13" s="17">
+      <c r="I13" s="17">
         <v>39</v>
       </c>
-      <c r="I13" s="17">
+      <c r="J13" s="17">
         <v>8</v>
       </c>
-      <c r="J13" s="17">
+      <c r="K13" s="17">
         <v>31</v>
       </c>
-      <c r="K13" s="17">
+      <c r="L13" s="17">
         <v>429</v>
       </c>
-      <c r="L13" s="17">
+      <c r="M13" s="17">
         <v>201</v>
       </c>
-      <c r="M13" s="17">
+      <c r="N13" s="17">
         <v>228</v>
       </c>
-      <c r="N13" s="15">
+      <c r="O13" s="15">
         <v>1322</v>
       </c>
-      <c r="O13" s="17">
+      <c r="P13" s="17">
         <v>581</v>
       </c>
-      <c r="P13" s="17">
+      <c r="Q13" s="17">
         <v>741</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C14" s="15">
         <v>120</v>
       </c>
-      <c r="C14" s="16">
+      <c r="D14" s="16">
         <v>47</v>
       </c>
-      <c r="D14" s="16">
+      <c r="E14" s="16">
         <v>73</v>
       </c>
-      <c r="E14" s="15">
+      <c r="F14" s="15">
         <v>66</v>
       </c>
-      <c r="F14" s="16">
+      <c r="G14" s="16">
         <v>24</v>
       </c>
-      <c r="G14" s="16">
+      <c r="H14" s="16">
         <v>42</v>
       </c>
-      <c r="H14" s="17">
+      <c r="I14" s="17">
         <v>15</v>
       </c>
-      <c r="I14" s="16">
-        <v>2</v>
-      </c>
       <c r="J14" s="16">
+        <v>2</v>
+      </c>
+      <c r="K14" s="16">
         <v>13</v>
       </c>
-      <c r="K14" s="17">
+      <c r="L14" s="17">
         <v>51</v>
       </c>
-      <c r="L14" s="16">
+      <c r="M14" s="16">
         <v>22</v>
       </c>
-      <c r="M14" s="16">
+      <c r="N14" s="16">
         <v>29</v>
       </c>
-      <c r="N14" s="15">
+      <c r="O14" s="15">
         <v>54</v>
       </c>
-      <c r="O14" s="16">
+      <c r="P14" s="16">
         <v>23</v>
       </c>
-      <c r="P14" s="16">
+      <c r="Q14" s="16">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C15" s="15">
         <v>460</v>
       </c>
-      <c r="C15" s="17">
+      <c r="D15" s="17">
         <v>199</v>
       </c>
-      <c r="D15" s="17">
+      <c r="E15" s="17">
         <v>261</v>
       </c>
-      <c r="E15" s="15">
+      <c r="F15" s="15">
         <v>249</v>
       </c>
-      <c r="F15" s="17">
+      <c r="G15" s="17">
         <v>102</v>
       </c>
-      <c r="G15" s="17">
+      <c r="H15" s="17">
         <v>147</v>
       </c>
-      <c r="H15" s="17">
+      <c r="I15" s="17">
         <v>60</v>
       </c>
-      <c r="I15" s="17">
+      <c r="J15" s="17">
         <v>6</v>
       </c>
-      <c r="J15" s="17">
+      <c r="K15" s="17">
         <v>54</v>
       </c>
-      <c r="K15" s="17">
+      <c r="L15" s="17">
         <v>189</v>
       </c>
-      <c r="L15" s="17">
+      <c r="M15" s="17">
         <v>96</v>
       </c>
-      <c r="M15" s="17">
+      <c r="N15" s="17">
         <v>93</v>
       </c>
-      <c r="N15" s="15">
+      <c r="O15" s="15">
         <v>211</v>
       </c>
-      <c r="O15" s="17">
+      <c r="P15" s="17">
         <v>97</v>
       </c>
-      <c r="P15" s="17">
+      <c r="Q15" s="17">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C16" s="15">
         <v>173</v>
       </c>
-      <c r="C16" s="16">
+      <c r="D16" s="16">
         <v>77</v>
       </c>
-      <c r="D16" s="16">
+      <c r="E16" s="16">
         <v>96</v>
       </c>
-      <c r="E16" s="15">
+      <c r="F16" s="15">
         <v>108</v>
       </c>
-      <c r="F16" s="16">
+      <c r="G16" s="16">
         <v>43</v>
       </c>
-      <c r="G16" s="16">
+      <c r="H16" s="16">
         <v>65</v>
       </c>
-      <c r="H16" s="17">
+      <c r="I16" s="17">
         <v>9</v>
       </c>
-      <c r="I16" s="16">
-        <v>0</v>
-      </c>
       <c r="J16" s="16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
         <v>9</v>
       </c>
-      <c r="K16" s="17">
+      <c r="L16" s="17">
         <v>99</v>
       </c>
-      <c r="L16" s="16">
+      <c r="M16" s="16">
         <v>43</v>
       </c>
-      <c r="M16" s="16">
+      <c r="N16" s="16">
         <v>56</v>
       </c>
-      <c r="N16" s="15">
+      <c r="O16" s="15">
         <v>65</v>
       </c>
-      <c r="O16" s="16">
+      <c r="P16" s="16">
         <v>34</v>
       </c>
-      <c r="P16" s="16">
+      <c r="Q16" s="16">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C17" s="15">
         <v>1559</v>
       </c>
-      <c r="C17" s="17">
+      <c r="D17" s="17">
         <v>640</v>
       </c>
-      <c r="D17" s="17">
+      <c r="E17" s="17">
         <v>919</v>
       </c>
-      <c r="E17" s="15">
+      <c r="F17" s="15">
         <v>537</v>
       </c>
-      <c r="F17" s="17">
+      <c r="G17" s="17">
         <v>212</v>
       </c>
-      <c r="G17" s="17">
+      <c r="H17" s="17">
         <v>325</v>
       </c>
-      <c r="H17" s="17">
+      <c r="I17" s="17">
         <v>129</v>
       </c>
-      <c r="I17" s="17">
+      <c r="J17" s="17">
         <v>15</v>
       </c>
-      <c r="J17" s="17">
+      <c r="K17" s="17">
         <v>114</v>
       </c>
-      <c r="K17" s="17">
+      <c r="L17" s="17">
         <v>408</v>
       </c>
-      <c r="L17" s="17">
+      <c r="M17" s="17">
         <v>197</v>
       </c>
-      <c r="M17" s="17">
+      <c r="N17" s="17">
         <v>211</v>
       </c>
-      <c r="N17" s="15">
+      <c r="O17" s="15">
         <v>1022</v>
       </c>
-      <c r="O17" s="17">
+      <c r="P17" s="17">
         <v>428</v>
       </c>
-      <c r="P17" s="17">
+      <c r="Q17" s="17">
         <v>594</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C18" s="15">
         <v>670</v>
       </c>
-      <c r="C18" s="16">
+      <c r="D18" s="16">
         <v>296</v>
       </c>
-      <c r="D18" s="16">
+      <c r="E18" s="16">
         <v>374</v>
       </c>
-      <c r="E18" s="15">
+      <c r="F18" s="15">
         <v>223</v>
       </c>
-      <c r="F18" s="16">
+      <c r="G18" s="16">
         <v>92</v>
       </c>
-      <c r="G18" s="16">
+      <c r="H18" s="16">
         <v>131</v>
       </c>
-      <c r="H18" s="17">
+      <c r="I18" s="17">
         <v>18</v>
       </c>
-      <c r="I18" s="16">
-        <v>2</v>
-      </c>
       <c r="J18" s="16">
+        <v>2</v>
+      </c>
+      <c r="K18" s="16">
         <v>16</v>
       </c>
-      <c r="K18" s="17">
+      <c r="L18" s="17">
         <v>205</v>
       </c>
-      <c r="L18" s="16">
+      <c r="M18" s="16">
         <v>90</v>
       </c>
-      <c r="M18" s="16">
+      <c r="N18" s="16">
         <v>115</v>
       </c>
-      <c r="N18" s="15">
+      <c r="O18" s="15">
         <v>447</v>
       </c>
-      <c r="O18" s="16">
+      <c r="P18" s="16">
         <v>204</v>
       </c>
-      <c r="P18" s="16">
+      <c r="Q18" s="16">
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C19" s="15">
         <v>152</v>
       </c>
-      <c r="C19" s="17">
+      <c r="D19" s="17">
         <v>67</v>
       </c>
-      <c r="D19" s="17">
+      <c r="E19" s="17">
         <v>85</v>
       </c>
-      <c r="E19" s="15">
+      <c r="F19" s="15">
         <v>64</v>
       </c>
-      <c r="F19" s="17">
+      <c r="G19" s="17">
         <v>29</v>
       </c>
-      <c r="G19" s="17">
+      <c r="H19" s="17">
         <v>35</v>
       </c>
-      <c r="H19" s="17">
+      <c r="I19" s="17">
         <v>10</v>
       </c>
-      <c r="I19" s="17">
-        <v>1</v>
-      </c>
       <c r="J19" s="17">
+        <v>1</v>
+      </c>
+      <c r="K19" s="17">
         <v>9</v>
       </c>
-      <c r="K19" s="17">
+      <c r="L19" s="17">
         <v>54</v>
       </c>
-      <c r="L19" s="17">
+      <c r="M19" s="17">
         <v>28</v>
       </c>
-      <c r="M19" s="17">
+      <c r="N19" s="17">
         <v>26</v>
       </c>
-      <c r="N19" s="15">
+      <c r="O19" s="15">
         <v>88</v>
       </c>
-      <c r="O19" s="17">
+      <c r="P19" s="17">
         <v>38</v>
       </c>
-      <c r="P19" s="17">
+      <c r="Q19" s="17">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C20" s="15">
         <v>105</v>
       </c>
-      <c r="C20" s="16">
+      <c r="D20" s="16">
         <v>48</v>
       </c>
-      <c r="D20" s="16">
+      <c r="E20" s="16">
         <v>57</v>
       </c>
-      <c r="E20" s="15">
+      <c r="F20" s="15">
         <v>45</v>
       </c>
-      <c r="F20" s="16">
+      <c r="G20" s="16">
         <v>23</v>
       </c>
-      <c r="G20" s="16">
+      <c r="H20" s="16">
         <v>22</v>
       </c>
-      <c r="H20" s="17">
-        <v>3</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0</v>
+      <c r="I20" s="17">
+        <v>3</v>
       </c>
       <c r="J20" s="16">
-        <v>3</v>
-      </c>
-      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <v>3</v>
+      </c>
+      <c r="L20" s="17">
         <v>42</v>
       </c>
-      <c r="L20" s="16">
+      <c r="M20" s="16">
         <v>23</v>
       </c>
-      <c r="M20" s="16">
+      <c r="N20" s="16">
         <v>19</v>
       </c>
-      <c r="N20" s="15">
+      <c r="O20" s="15">
         <v>60</v>
       </c>
-      <c r="O20" s="16">
+      <c r="P20" s="16">
         <v>25</v>
       </c>
-      <c r="P20" s="16">
+      <c r="Q20" s="16">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C21" s="15">
         <v>320</v>
       </c>
-      <c r="C21" s="17">
+      <c r="D21" s="17">
         <v>144</v>
       </c>
-      <c r="D21" s="17">
+      <c r="E21" s="17">
         <v>176</v>
       </c>
-      <c r="E21" s="15">
+      <c r="F21" s="15">
         <v>104</v>
       </c>
-      <c r="F21" s="17">
+      <c r="G21" s="17">
         <v>54</v>
       </c>
-      <c r="G21" s="17">
+      <c r="H21" s="17">
         <v>50</v>
       </c>
-      <c r="H21" s="17">
+      <c r="I21" s="17">
         <v>19</v>
       </c>
-      <c r="I21" s="17">
+      <c r="J21" s="17">
         <v>6</v>
       </c>
-      <c r="J21" s="17">
+      <c r="K21" s="17">
         <v>13</v>
       </c>
-      <c r="K21" s="17">
+      <c r="L21" s="17">
         <v>85</v>
       </c>
-      <c r="L21" s="17">
+      <c r="M21" s="17">
         <v>48</v>
       </c>
-      <c r="M21" s="17">
+      <c r="N21" s="17">
         <v>37</v>
       </c>
-      <c r="N21" s="15">
+      <c r="O21" s="15">
         <v>216</v>
       </c>
-      <c r="O21" s="17">
+      <c r="P21" s="17">
         <v>90</v>
       </c>
-      <c r="P21" s="17">
+      <c r="Q21" s="17">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C22" s="15">
         <v>538</v>
       </c>
-      <c r="C22" s="16">
+      <c r="D22" s="16">
         <v>251</v>
       </c>
-      <c r="D22" s="16">
+      <c r="E22" s="16">
         <v>287</v>
       </c>
-      <c r="E22" s="15">
+      <c r="F22" s="15">
         <v>226</v>
       </c>
-      <c r="F22" s="16">
+      <c r="G22" s="16">
         <v>101</v>
       </c>
-      <c r="G22" s="16">
+      <c r="H22" s="16">
         <v>125</v>
       </c>
-      <c r="H22" s="17">
+      <c r="I22" s="17">
         <v>36</v>
       </c>
-      <c r="I22" s="16">
+      <c r="J22" s="16">
         <v>4</v>
       </c>
-      <c r="J22" s="16">
+      <c r="K22" s="16">
         <v>32</v>
       </c>
-      <c r="K22" s="17">
+      <c r="L22" s="17">
         <v>190</v>
       </c>
-      <c r="L22" s="16">
+      <c r="M22" s="16">
         <v>97</v>
       </c>
-      <c r="M22" s="16">
+      <c r="N22" s="16">
         <v>93</v>
       </c>
-      <c r="N22" s="15">
+      <c r="O22" s="15">
         <v>312</v>
       </c>
-      <c r="O22" s="16">
+      <c r="P22" s="16">
         <v>150</v>
       </c>
-      <c r="P22" s="16">
+      <c r="Q22" s="16">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C23" s="15">
         <v>1047</v>
       </c>
-      <c r="C23" s="17">
+      <c r="D23" s="17">
         <v>436</v>
       </c>
-      <c r="D23" s="17">
+      <c r="E23" s="17">
         <v>611</v>
       </c>
-      <c r="E23" s="15">
+      <c r="F23" s="15">
         <v>331</v>
       </c>
-      <c r="F23" s="17">
+      <c r="G23" s="17">
         <v>143</v>
       </c>
-      <c r="G23" s="17">
+      <c r="H23" s="17">
         <v>188</v>
       </c>
-      <c r="H23" s="17">
+      <c r="I23" s="17">
         <v>33</v>
       </c>
-      <c r="I23" s="17">
-        <v>3</v>
-      </c>
       <c r="J23" s="17">
+        <v>3</v>
+      </c>
+      <c r="K23" s="17">
         <v>30</v>
       </c>
-      <c r="K23" s="17">
+      <c r="L23" s="17">
         <v>298</v>
       </c>
-      <c r="L23" s="17">
+      <c r="M23" s="17">
         <v>140</v>
       </c>
-      <c r="M23" s="17">
+      <c r="N23" s="17">
         <v>158</v>
       </c>
-      <c r="N23" s="15">
+      <c r="O23" s="15">
         <v>716</v>
       </c>
-      <c r="O23" s="17">
+      <c r="P23" s="17">
         <v>293</v>
       </c>
-      <c r="P23" s="17">
+      <c r="Q23" s="17">
         <v>423</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C24" s="15">
         <v>1793</v>
       </c>
-      <c r="C24" s="16">
+      <c r="D24" s="16">
         <v>770</v>
       </c>
-      <c r="D24" s="16">
+      <c r="E24" s="16">
         <v>1023</v>
       </c>
-      <c r="E24" s="15">
+      <c r="F24" s="15">
         <v>560</v>
       </c>
-      <c r="F24" s="16">
+      <c r="G24" s="16">
         <v>230</v>
       </c>
-      <c r="G24" s="16">
+      <c r="H24" s="16">
         <v>330</v>
       </c>
-      <c r="H24" s="17">
+      <c r="I24" s="17">
         <v>100</v>
       </c>
-      <c r="I24" s="16">
+      <c r="J24" s="16">
         <v>14</v>
       </c>
-      <c r="J24" s="16">
+      <c r="K24" s="16">
         <v>86</v>
       </c>
-      <c r="K24" s="17">
+      <c r="L24" s="17">
         <v>460</v>
       </c>
-      <c r="L24" s="16">
+      <c r="M24" s="16">
         <v>216</v>
       </c>
-      <c r="M24" s="16">
+      <c r="N24" s="16">
         <v>244</v>
       </c>
-      <c r="N24" s="15">
+      <c r="O24" s="15">
         <v>1233</v>
       </c>
-      <c r="O24" s="16">
+      <c r="P24" s="16">
         <v>540</v>
       </c>
-      <c r="P24" s="16">
+      <c r="Q24" s="16">
         <v>693</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C25" s="15">
         <v>342</v>
       </c>
-      <c r="C25" s="17">
+      <c r="D25" s="17">
         <v>138</v>
       </c>
-      <c r="D25" s="17">
+      <c r="E25" s="17">
         <v>204</v>
       </c>
-      <c r="E25" s="15">
+      <c r="F25" s="15">
         <v>138</v>
       </c>
-      <c r="F25" s="17">
+      <c r="G25" s="17">
         <v>52</v>
       </c>
-      <c r="G25" s="17">
+      <c r="H25" s="17">
         <v>86</v>
       </c>
-      <c r="H25" s="17">
+      <c r="I25" s="17">
         <v>28</v>
       </c>
-      <c r="I25" s="17">
-        <v>3</v>
-      </c>
       <c r="J25" s="17">
+        <v>3</v>
+      </c>
+      <c r="K25" s="17">
         <v>25</v>
       </c>
-      <c r="K25" s="17">
+      <c r="L25" s="17">
         <v>110</v>
       </c>
-      <c r="L25" s="17">
+      <c r="M25" s="17">
         <v>49</v>
       </c>
-      <c r="M25" s="17">
+      <c r="N25" s="17">
         <v>61</v>
       </c>
-      <c r="N25" s="15">
+      <c r="O25" s="15">
         <v>204</v>
       </c>
-      <c r="O25" s="17">
+      <c r="P25" s="17">
         <v>86</v>
       </c>
-      <c r="P25" s="17">
+      <c r="Q25" s="17">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C26" s="15">
         <v>626</v>
       </c>
-      <c r="C26" s="16">
+      <c r="D26" s="16">
         <v>274</v>
       </c>
-      <c r="D26" s="16">
+      <c r="E26" s="16">
         <v>352</v>
       </c>
-      <c r="E26" s="15">
+      <c r="F26" s="15">
         <v>151</v>
       </c>
-      <c r="F26" s="16">
+      <c r="G26" s="16">
         <v>66</v>
       </c>
-      <c r="G26" s="16">
+      <c r="H26" s="16">
         <v>85</v>
       </c>
-      <c r="H26" s="17">
+      <c r="I26" s="17">
         <v>12</v>
       </c>
-      <c r="I26" s="16">
-        <v>1</v>
-      </c>
       <c r="J26" s="16">
+        <v>1</v>
+      </c>
+      <c r="K26" s="16">
         <v>11</v>
       </c>
-      <c r="K26" s="17">
+      <c r="L26" s="17">
         <v>139</v>
       </c>
-      <c r="L26" s="16">
+      <c r="M26" s="16">
         <v>65</v>
       </c>
-      <c r="M26" s="16">
+      <c r="N26" s="16">
         <v>74</v>
       </c>
-      <c r="N26" s="15">
+      <c r="O26" s="15">
         <v>475</v>
       </c>
-      <c r="O26" s="16">
+      <c r="P26" s="16">
         <v>208</v>
       </c>
-      <c r="P26" s="16">
+      <c r="Q26" s="16">
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C27" s="15">
         <v>109</v>
       </c>
-      <c r="C27" s="17">
+      <c r="D27" s="17">
         <v>47</v>
       </c>
-      <c r="D27" s="17">
+      <c r="E27" s="17">
         <v>62</v>
       </c>
-      <c r="E27" s="15">
+      <c r="F27" s="15">
         <v>71</v>
       </c>
-      <c r="F27" s="17">
+      <c r="G27" s="17">
         <v>26</v>
       </c>
-      <c r="G27" s="17">
+      <c r="H27" s="17">
         <v>45</v>
       </c>
-      <c r="H27" s="17">
+      <c r="I27" s="17">
         <v>9</v>
       </c>
-      <c r="I27" s="17">
-        <v>0</v>
-      </c>
       <c r="J27" s="17">
+        <v>0</v>
+      </c>
+      <c r="K27" s="17">
         <v>9</v>
       </c>
-      <c r="K27" s="17">
+      <c r="L27" s="17">
         <v>62</v>
       </c>
-      <c r="L27" s="17">
+      <c r="M27" s="17">
         <v>26</v>
       </c>
-      <c r="M27" s="17">
+      <c r="N27" s="17">
         <v>36</v>
       </c>
-      <c r="N27" s="15">
+      <c r="O27" s="15">
         <v>38</v>
       </c>
-      <c r="O27" s="17">
+      <c r="P27" s="17">
         <v>21</v>
       </c>
-      <c r="P27" s="17">
+      <c r="Q27" s="17">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C28" s="15">
         <v>2345</v>
       </c>
-      <c r="C28" s="16">
+      <c r="D28" s="16">
         <v>1071</v>
       </c>
-      <c r="D28" s="16">
+      <c r="E28" s="16">
         <v>1274</v>
       </c>
-      <c r="E28" s="15">
+      <c r="F28" s="15">
         <v>620</v>
       </c>
-      <c r="F28" s="16">
+      <c r="G28" s="16">
         <v>281</v>
       </c>
-      <c r="G28" s="16">
+      <c r="H28" s="16">
         <v>339</v>
       </c>
-      <c r="H28" s="17">
+      <c r="I28" s="17">
         <v>51</v>
       </c>
-      <c r="I28" s="16">
+      <c r="J28" s="16">
         <v>15</v>
       </c>
-      <c r="J28" s="16">
+      <c r="K28" s="16">
         <v>36</v>
       </c>
-      <c r="K28" s="17">
+      <c r="L28" s="17">
         <v>569</v>
       </c>
-      <c r="L28" s="16">
+      <c r="M28" s="16">
         <v>266</v>
       </c>
-      <c r="M28" s="16">
+      <c r="N28" s="16">
         <v>303</v>
       </c>
-      <c r="N28" s="15">
+      <c r="O28" s="15">
         <v>1725</v>
       </c>
-      <c r="O28" s="16">
+      <c r="P28" s="16">
         <v>790</v>
       </c>
-      <c r="P28" s="16">
+      <c r="Q28" s="16">
         <v>935</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C29" s="15">
         <v>719</v>
       </c>
-      <c r="C29" s="17">
+      <c r="D29" s="17">
         <v>293</v>
       </c>
-      <c r="D29" s="17">
+      <c r="E29" s="17">
         <v>426</v>
       </c>
-      <c r="E29" s="15">
+      <c r="F29" s="15">
         <v>241</v>
       </c>
-      <c r="F29" s="17">
+      <c r="G29" s="17">
         <v>95</v>
       </c>
-      <c r="G29" s="17">
+      <c r="H29" s="17">
         <v>146</v>
       </c>
-      <c r="H29" s="17">
+      <c r="I29" s="17">
         <v>36</v>
       </c>
-      <c r="I29" s="17">
+      <c r="J29" s="17">
         <v>7</v>
       </c>
-      <c r="J29" s="17">
+      <c r="K29" s="17">
         <v>29</v>
       </c>
-      <c r="K29" s="17">
+      <c r="L29" s="17">
         <v>205</v>
       </c>
-      <c r="L29" s="17">
+      <c r="M29" s="17">
         <v>88</v>
       </c>
-      <c r="M29" s="17">
+      <c r="N29" s="17">
         <v>117</v>
       </c>
-      <c r="N29" s="15">
+      <c r="O29" s="15">
         <v>478</v>
       </c>
-      <c r="O29" s="17">
+      <c r="P29" s="17">
         <v>198</v>
       </c>
-      <c r="P29" s="17">
+      <c r="Q29" s="17">
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C30" s="15">
         <v>332</v>
       </c>
-      <c r="C30" s="16">
+      <c r="D30" s="16">
         <v>126</v>
       </c>
-      <c r="D30" s="16">
+      <c r="E30" s="16">
         <v>206</v>
       </c>
-      <c r="E30" s="15">
+      <c r="F30" s="15">
         <v>126</v>
       </c>
-      <c r="F30" s="16">
+      <c r="G30" s="16">
         <v>55</v>
       </c>
-      <c r="G30" s="16">
+      <c r="H30" s="16">
         <v>71</v>
       </c>
-      <c r="H30" s="17">
+      <c r="I30" s="17">
         <v>24</v>
       </c>
-      <c r="I30" s="16">
-        <v>3</v>
-      </c>
       <c r="J30" s="16">
+        <v>3</v>
+      </c>
+      <c r="K30" s="16">
         <v>21</v>
       </c>
-      <c r="K30" s="17">
+      <c r="L30" s="17">
         <v>102</v>
       </c>
-      <c r="L30" s="16">
+      <c r="M30" s="16">
         <v>52</v>
       </c>
-      <c r="M30" s="16">
+      <c r="N30" s="16">
         <v>50</v>
       </c>
-      <c r="N30" s="15">
+      <c r="O30" s="15">
         <v>206</v>
       </c>
-      <c r="O30" s="16">
+      <c r="P30" s="16">
         <v>71</v>
       </c>
-      <c r="P30" s="16">
+      <c r="Q30" s="16">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="82">
+        <v>2011</v>
+      </c>
+      <c r="C31" s="30">
         <v>4646</v>
       </c>
-      <c r="C31" s="31">
+      <c r="D31" s="31">
         <v>1932</v>
       </c>
-      <c r="D31" s="31">
+      <c r="E31" s="31">
         <v>2714</v>
       </c>
-      <c r="E31" s="30">
+      <c r="F31" s="30">
         <v>1700</v>
       </c>
-      <c r="F31" s="31">
+      <c r="G31" s="31">
         <v>693</v>
       </c>
-      <c r="G31" s="31">
+      <c r="H31" s="31">
         <v>1007</v>
       </c>
-      <c r="H31" s="31">
+      <c r="I31" s="31">
         <v>223</v>
       </c>
-      <c r="I31" s="31">
+      <c r="J31" s="31">
         <v>37</v>
       </c>
-      <c r="J31" s="31">
+      <c r="K31" s="31">
         <v>186</v>
       </c>
-      <c r="K31" s="31">
+      <c r="L31" s="31">
         <v>1477</v>
       </c>
-      <c r="L31" s="31">
+      <c r="M31" s="31">
         <v>656</v>
       </c>
-      <c r="M31" s="31">
+      <c r="N31" s="31">
         <v>821</v>
       </c>
-      <c r="N31" s="30">
+      <c r="O31" s="30">
         <v>2946</v>
       </c>
-      <c r="O31" s="31">
+      <c r="P31" s="31">
         <v>1239</v>
       </c>
-      <c r="P31" s="31">
+      <c r="Q31" s="31">
         <v>1707</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.51181102362204722" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
